--- a/Output/Xpert_pooling_output.xlsx
+++ b/Output/Xpert_pooling_output.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -459,7 +459,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I2">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -509,7 +509,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I3">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -559,7 +559,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I4">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I5">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I6">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -709,7 +709,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I7">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I8">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -809,7 +809,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I10">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -909,7 +909,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I11">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -959,11 +959,11 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I12">
-        <v>11154</v>
+        <v>10773</v>
       </c>
       <c r="J12">
         <v>0.04349007882576787</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1009,11 +1009,11 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I13">
-        <v>11284</v>
+        <v>10900</v>
       </c>
       <c r="J13">
         <v>0.0513726556129383</v>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1059,11 +1059,11 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I14">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="J14">
         <v>0.04705882352941176</v>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1109,11 +1109,11 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I15">
-        <v>2067</v>
+        <v>2011</v>
       </c>
       <c r="J15">
         <v>0.05054945054945055</v>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1159,11 +1159,11 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I16">
-        <v>1335</v>
+        <v>1300</v>
       </c>
       <c r="J16">
         <v>0.03296703296703297</v>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1209,11 +1209,11 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I17">
-        <v>11288</v>
+        <v>10847</v>
       </c>
       <c r="J17">
         <v>0.04349007882576787</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1259,11 +1259,11 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I18">
-        <v>11432</v>
+        <v>10988</v>
       </c>
       <c r="J18">
         <v>0.0513726556129383</v>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1309,11 +1309,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I19">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="J19">
         <v>0.04705882352941176</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1359,11 +1359,11 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I20">
-        <v>2072</v>
+        <v>2003</v>
       </c>
       <c r="J20">
         <v>0.05054945054945055</v>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I21">
-        <v>1331</v>
+        <v>1287</v>
       </c>
       <c r="J21">
         <v>0.03296703296703297</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1459,11 +1459,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I22">
-        <v>9298</v>
+        <v>9215</v>
       </c>
       <c r="J22">
         <v>0.04349007882576787</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1509,11 +1509,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I23">
-        <v>9210</v>
+        <v>9101</v>
       </c>
       <c r="J23">
         <v>0.0513726556129383</v>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1559,11 +1559,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I24">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="J24">
         <v>0.04705882352941176</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1609,11 +1609,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I25">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="J25">
         <v>0.05054945054945055</v>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1659,11 +1659,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I26">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="J26">
         <v>0.03296703296703297</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I27">
-        <v>9230</v>
+        <v>9125</v>
       </c>
       <c r="J27">
         <v>0.04349007882576787</v>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1759,11 +1759,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I28">
-        <v>9149</v>
+        <v>9010</v>
       </c>
       <c r="J28">
         <v>0.0513726556129383</v>
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1809,11 +1809,11 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I29">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J29">
         <v>0.04705882352941176</v>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I30">
-        <v>1958</v>
+        <v>1931</v>
       </c>
       <c r="J30">
         <v>0.05054945054945055</v>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1909,11 +1909,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I31">
-        <v>1178</v>
+        <v>1151</v>
       </c>
       <c r="J31">
         <v>0.03296703296703297</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1959,11 +1959,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I32">
-        <v>9277</v>
+        <v>9195</v>
       </c>
       <c r="J32">
         <v>0.04349007882576787</v>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I33">
-        <v>9156</v>
+        <v>9049</v>
       </c>
       <c r="J33">
         <v>0.0513726556129383</v>
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2059,11 +2059,11 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I34">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J34">
         <v>0.04705882352941176</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2109,11 +2109,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I35">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="J35">
         <v>0.05054945054945055</v>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2159,11 +2159,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I36">
-        <v>1201</v>
+        <v>1181</v>
       </c>
       <c r="J36">
         <v>0.03296703296703297</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2209,11 +2209,11 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I37">
-        <v>9191</v>
+        <v>9089</v>
       </c>
       <c r="J37">
         <v>0.04349007882576787</v>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2259,11 +2259,11 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I38">
-        <v>9053</v>
+        <v>8920</v>
       </c>
       <c r="J38">
         <v>0.0513726556129383</v>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2309,11 +2309,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I39">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="J39">
         <v>0.04705882352941176</v>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2359,11 +2359,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I40">
-        <v>1950</v>
+        <v>1925</v>
       </c>
       <c r="J40">
         <v>0.05054945054945055</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2409,11 +2409,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I41">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="J41">
         <v>0.03296703296703297</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D42">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2459,11 +2459,11 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I42">
-        <v>9274</v>
+        <v>9192</v>
       </c>
       <c r="J42">
         <v>0.04349007882576787</v>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2509,11 +2509,11 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I43">
-        <v>9384</v>
+        <v>9312</v>
       </c>
       <c r="J43">
         <v>0.0513726556129383</v>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I44">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I45">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I46">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2709,11 +2709,11 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I47">
-        <v>9184</v>
+        <v>9082</v>
       </c>
       <c r="J47">
         <v>0.04349007882576787</v>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I48">
-        <v>9261</v>
+        <v>9170</v>
       </c>
       <c r="J48">
         <v>0.0513726556129383</v>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I49">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I50">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_0.98</t>
+          <t>SeP_0.9_SpP_0.98</t>
         </is>
       </c>
       <c r="I51">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I52">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I53">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I54">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I55">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I56">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I57">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I58">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I59">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I60">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I61">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3459,11 +3459,11 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I62">
-        <v>11537</v>
+        <v>11154</v>
       </c>
       <c r="J62">
         <v>0.04349007882576787</v>
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3509,11 +3509,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I63">
-        <v>11667</v>
+        <v>11284</v>
       </c>
       <c r="J63">
         <v>0.0513726556129383</v>
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3559,11 +3559,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I64">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="J64">
         <v>0.04705882352941176</v>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3609,11 +3609,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I65">
-        <v>2122</v>
+        <v>2067</v>
       </c>
       <c r="J65">
         <v>0.05054945054945055</v>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I66">
-        <v>1369</v>
+        <v>1335</v>
       </c>
       <c r="J66">
         <v>0.03296703296703297</v>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I67">
-        <v>11729</v>
+        <v>11288</v>
       </c>
       <c r="J67">
         <v>0.04349007882576787</v>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3759,11 +3759,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I68">
-        <v>11876</v>
+        <v>11432</v>
       </c>
       <c r="J68">
         <v>0.0513726556129383</v>
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3809,11 +3809,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I69">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="J69">
         <v>0.04705882352941176</v>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3859,11 +3859,11 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I70">
-        <v>2141</v>
+        <v>2072</v>
       </c>
       <c r="J70">
         <v>0.05054945054945055</v>
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3909,11 +3909,11 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I71">
-        <v>1374</v>
+        <v>1331</v>
       </c>
       <c r="J71">
         <v>0.03296703296703297</v>
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3959,11 +3959,11 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I72">
-        <v>9381</v>
+        <v>9298</v>
       </c>
       <c r="J72">
         <v>0.04349007882576787</v>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4009,11 +4009,11 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I73">
-        <v>9320</v>
+        <v>9210</v>
       </c>
       <c r="J73">
         <v>0.0513726556129383</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4059,11 +4059,11 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I74">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J74">
         <v>0.04705882352941176</v>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4109,11 +4109,11 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I75">
-        <v>2035</v>
+        <v>2014</v>
       </c>
       <c r="J75">
         <v>0.05054945054945055</v>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4159,11 +4159,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I76">
-        <v>1237</v>
+        <v>1216</v>
       </c>
       <c r="J76">
         <v>0.03296703296703297</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4209,11 +4209,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I77">
-        <v>9334</v>
+        <v>9230</v>
       </c>
       <c r="J77">
         <v>0.04349007882576787</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4259,11 +4259,11 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I78">
-        <v>9287</v>
+        <v>9149</v>
       </c>
       <c r="J78">
         <v>0.0513726556129383</v>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I79">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J79">
         <v>0.04705882352941176</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4359,11 +4359,11 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I80">
-        <v>1984</v>
+        <v>1958</v>
       </c>
       <c r="J80">
         <v>0.05054945054945055</v>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4409,11 +4409,11 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I81">
-        <v>1206</v>
+        <v>1178</v>
       </c>
       <c r="J81">
         <v>0.03296703296703297</v>
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4459,11 +4459,11 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I82">
-        <v>9359</v>
+        <v>9277</v>
       </c>
       <c r="J82">
         <v>0.04349007882576787</v>
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4509,11 +4509,11 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I83">
-        <v>9263</v>
+        <v>9156</v>
       </c>
       <c r="J83">
         <v>0.0513726556129383</v>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4559,11 +4559,11 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I84">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="J84">
         <v>0.04705882352941176</v>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4609,11 +4609,11 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I85">
-        <v>2031</v>
+        <v>2011</v>
       </c>
       <c r="J85">
         <v>0.05054945054945055</v>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4659,11 +4659,11 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I86">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="J86">
         <v>0.03296703296703297</v>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4709,11 +4709,11 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I87">
-        <v>9294</v>
+        <v>9191</v>
       </c>
       <c r="J87">
         <v>0.04349007882576787</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4759,11 +4759,11 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I88">
-        <v>9185</v>
+        <v>9053</v>
       </c>
       <c r="J88">
         <v>0.0513726556129383</v>
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4809,11 +4809,11 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I89">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="J89">
         <v>0.04705882352941176</v>
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4859,11 +4859,11 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I90">
-        <v>1976</v>
+        <v>1950</v>
       </c>
       <c r="J90">
         <v>0.05054945054945055</v>
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4909,11 +4909,11 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I91">
-        <v>1177</v>
+        <v>1151</v>
       </c>
       <c r="J91">
         <v>0.03296703296703297</v>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4959,11 +4959,11 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I92">
-        <v>9355</v>
+        <v>9274</v>
       </c>
       <c r="J92">
         <v>0.04349007882576787</v>
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5009,11 +5009,11 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I93">
-        <v>9457</v>
+        <v>9384</v>
       </c>
       <c r="J93">
         <v>0.0513726556129383</v>
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I94">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I95">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I96">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5209,11 +5209,11 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I97">
-        <v>9286</v>
+        <v>9184</v>
       </c>
       <c r="J97">
         <v>0.04349007882576787</v>
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5259,11 +5259,11 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I98">
-        <v>9353</v>
+        <v>9261</v>
       </c>
       <c r="J98">
         <v>0.0513726556129383</v>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I99">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I100">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_0.98</t>
+          <t>SeP_0.95_SpP_0.98</t>
         </is>
       </c>
       <c r="I101">
@@ -5446,20 +5446,20 @@
         </is>
       </c>
       <c r="D102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I102">
@@ -5496,20 +5496,20 @@
         </is>
       </c>
       <c r="D103">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I103">
@@ -5546,20 +5546,20 @@
         </is>
       </c>
       <c r="D104">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I104">
@@ -5596,20 +5596,20 @@
         </is>
       </c>
       <c r="D105">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I105">
@@ -5646,20 +5646,20 @@
         </is>
       </c>
       <c r="D106">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G106">
         <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I106">
@@ -5696,20 +5696,20 @@
         </is>
       </c>
       <c r="D107">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G107">
         <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I107">
@@ -5746,20 +5746,20 @@
         </is>
       </c>
       <c r="D108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I108">
@@ -5796,20 +5796,20 @@
         </is>
       </c>
       <c r="D109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I109">
@@ -5846,20 +5846,20 @@
         </is>
       </c>
       <c r="D110">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I110">
@@ -5896,20 +5896,20 @@
         </is>
       </c>
       <c r="D111">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I111">
@@ -5946,24 +5946,24 @@
         </is>
       </c>
       <c r="D112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G112">
         <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I112">
-        <v>11079</v>
+        <v>11537</v>
       </c>
       <c r="J112">
         <v>0.04349007882576787</v>
@@ -5996,24 +5996,24 @@
         </is>
       </c>
       <c r="D113">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G113">
         <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I113">
-        <v>11202</v>
+        <v>11667</v>
       </c>
       <c r="J113">
         <v>0.0513726556129383</v>
@@ -6046,24 +6046,24 @@
         </is>
       </c>
       <c r="D114">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I114">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="J114">
         <v>0.04705882352941176</v>
@@ -6096,24 +6096,24 @@
         </is>
       </c>
       <c r="D115">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I115">
-        <v>2031</v>
+        <v>2122</v>
       </c>
       <c r="J115">
         <v>0.05054945054945055</v>
@@ -6146,24 +6146,24 @@
         </is>
       </c>
       <c r="D116">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I116">
-        <v>1309</v>
+        <v>1369</v>
       </c>
       <c r="J116">
         <v>0.03296703296703297</v>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="D117">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I117">
-        <v>11236</v>
+        <v>11729</v>
       </c>
       <c r="J117">
         <v>0.04349007882576787</v>
@@ -6246,24 +6246,24 @@
         </is>
       </c>
       <c r="D118">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I118">
-        <v>11374</v>
+        <v>11876</v>
       </c>
       <c r="J118">
         <v>0.0513726556129383</v>
@@ -6296,24 +6296,24 @@
         </is>
       </c>
       <c r="D119">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I119">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="J119">
         <v>0.04705882352941176</v>
@@ -6346,24 +6346,24 @@
         </is>
       </c>
       <c r="D120">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G120">
         <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I120">
-        <v>2041</v>
+        <v>2141</v>
       </c>
       <c r="J120">
         <v>0.05054945054945055</v>
@@ -6396,24 +6396,24 @@
         </is>
       </c>
       <c r="D121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I121">
-        <v>1309</v>
+        <v>1374</v>
       </c>
       <c r="J121">
         <v>0.03296703296703297</v>
@@ -6446,24 +6446,24 @@
         </is>
       </c>
       <c r="D122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I122">
-        <v>9217</v>
+        <v>9381</v>
       </c>
       <c r="J122">
         <v>0.04349007882576787</v>
@@ -6496,24 +6496,24 @@
         </is>
       </c>
       <c r="D123">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G123">
         <v>1</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I123">
-        <v>9112</v>
+        <v>9320</v>
       </c>
       <c r="J123">
         <v>0.0513726556129383</v>
@@ -6546,24 +6546,24 @@
         </is>
       </c>
       <c r="D124">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G124">
         <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I124">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="J124">
         <v>0.04705882352941176</v>
@@ -6596,24 +6596,24 @@
         </is>
       </c>
       <c r="D125">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I125">
-        <v>1983</v>
+        <v>2035</v>
       </c>
       <c r="J125">
         <v>0.05054945054945055</v>
@@ -6646,24 +6646,24 @@
         </is>
       </c>
       <c r="D126">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I126">
-        <v>1189</v>
+        <v>1237</v>
       </c>
       <c r="J126">
         <v>0.03296703296703297</v>
@@ -6696,24 +6696,24 @@
         </is>
       </c>
       <c r="D127">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I127">
-        <v>9157</v>
+        <v>9334</v>
       </c>
       <c r="J127">
         <v>0.04349007882576787</v>
@@ -6746,24 +6746,24 @@
         </is>
       </c>
       <c r="D128">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G128">
         <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I128">
-        <v>9062</v>
+        <v>9287</v>
       </c>
       <c r="J128">
         <v>0.0513726556129383</v>
@@ -6796,24 +6796,24 @@
         </is>
       </c>
       <c r="D129">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I129">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="J129">
         <v>0.04705882352941176</v>
@@ -6846,24 +6846,24 @@
         </is>
       </c>
       <c r="D130">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G130">
         <v>1</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I130">
-        <v>1928</v>
+        <v>1984</v>
       </c>
       <c r="J130">
         <v>0.05054945054945055</v>
@@ -6896,24 +6896,24 @@
         </is>
       </c>
       <c r="D131">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G131">
         <v>1</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I131">
-        <v>1154</v>
+        <v>1206</v>
       </c>
       <c r="J131">
         <v>0.03296703296703297</v>
@@ -6946,24 +6946,24 @@
         </is>
       </c>
       <c r="D132">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G132">
         <v>1</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I132">
-        <v>9195</v>
+        <v>9359</v>
       </c>
       <c r="J132">
         <v>0.04349007882576787</v>
@@ -6996,24 +6996,24 @@
         </is>
       </c>
       <c r="D133">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G133">
         <v>1</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I133">
-        <v>9057</v>
+        <v>9263</v>
       </c>
       <c r="J133">
         <v>0.0513726556129383</v>
@@ -7046,24 +7046,24 @@
         </is>
       </c>
       <c r="D134">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G134">
         <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I134">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="J134">
         <v>0.04705882352941176</v>
@@ -7096,24 +7096,24 @@
         </is>
       </c>
       <c r="D135">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I135">
-        <v>1979</v>
+        <v>2031</v>
       </c>
       <c r="J135">
         <v>0.05054945054945055</v>
@@ -7146,24 +7146,24 @@
         </is>
       </c>
       <c r="D136">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I136">
-        <v>1174</v>
+        <v>1221</v>
       </c>
       <c r="J136">
         <v>0.03296703296703297</v>
@@ -7196,24 +7196,24 @@
         </is>
       </c>
       <c r="D137">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G137">
         <v>1</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I137">
-        <v>9118</v>
+        <v>9294</v>
       </c>
       <c r="J137">
         <v>0.04349007882576787</v>
@@ -7246,24 +7246,24 @@
         </is>
       </c>
       <c r="D138">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I138">
-        <v>8965</v>
+        <v>9185</v>
       </c>
       <c r="J138">
         <v>0.0513726556129383</v>
@@ -7296,24 +7296,24 @@
         </is>
       </c>
       <c r="D139">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G139">
         <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I139">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="J139">
         <v>0.04705882352941176</v>
@@ -7346,24 +7346,24 @@
         </is>
       </c>
       <c r="D140">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I140">
-        <v>1921</v>
+        <v>1976</v>
       </c>
       <c r="J140">
         <v>0.05054945054945055</v>
@@ -7396,24 +7396,24 @@
         </is>
       </c>
       <c r="D141">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G141">
         <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I141">
-        <v>1127</v>
+        <v>1177</v>
       </c>
       <c r="J141">
         <v>0.03296703296703297</v>
@@ -7446,24 +7446,24 @@
         </is>
       </c>
       <c r="D142">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G142">
         <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I142">
-        <v>9191</v>
+        <v>9355</v>
       </c>
       <c r="J142">
         <v>0.04349007882576787</v>
@@ -7496,24 +7496,24 @@
         </is>
       </c>
       <c r="D143">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G143">
         <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I143">
-        <v>9300</v>
+        <v>9457</v>
       </c>
       <c r="J143">
         <v>0.0513726556129383</v>
@@ -7546,20 +7546,20 @@
         </is>
       </c>
       <c r="D144">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I144">
@@ -7596,20 +7596,20 @@
         </is>
       </c>
       <c r="D145">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I145">
@@ -7646,20 +7646,20 @@
         </is>
       </c>
       <c r="D146">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G146">
         <v>1</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I146">
@@ -7696,24 +7696,24 @@
         </is>
       </c>
       <c r="D147">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I147">
-        <v>9112</v>
+        <v>9286</v>
       </c>
       <c r="J147">
         <v>0.04349007882576787</v>
@@ -7746,24 +7746,24 @@
         </is>
       </c>
       <c r="D148">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I148">
-        <v>9183</v>
+        <v>9353</v>
       </c>
       <c r="J148">
         <v>0.0513726556129383</v>
@@ -7796,20 +7796,20 @@
         </is>
       </c>
       <c r="D149">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G149">
         <v>1</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I149">
@@ -7846,20 +7846,20 @@
         </is>
       </c>
       <c r="D150">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I150">
@@ -7896,20 +7896,20 @@
         </is>
       </c>
       <c r="D151">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>SeP_0.95_SpP_1</t>
+          <t>SeP_1_SpP_0.98</t>
         </is>
       </c>
       <c r="I151">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7959,7 +7959,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I152">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I153">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I154">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I155">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I156">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I157">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I158">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I159">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I160">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I161">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -8459,11 +8459,11 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I162">
-        <v>11461</v>
+        <v>10696</v>
       </c>
       <c r="J162">
         <v>0.04349007882576787</v>
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -8509,11 +8509,11 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I163">
-        <v>11585</v>
+        <v>10819</v>
       </c>
       <c r="J163">
         <v>0.0513726556129383</v>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -8559,11 +8559,11 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I164">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="J164">
         <v>0.04705882352941176</v>
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -8609,11 +8609,11 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I165">
-        <v>2086</v>
+        <v>1975</v>
       </c>
       <c r="J165">
         <v>0.05054945054945055</v>
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -8659,11 +8659,11 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I166">
-        <v>1344</v>
+        <v>1275</v>
       </c>
       <c r="J166">
         <v>0.03296703296703297</v>
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -8709,11 +8709,11 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I167">
-        <v>11676</v>
+        <v>10795</v>
       </c>
       <c r="J167">
         <v>0.04349007882576787</v>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -8759,11 +8759,11 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I168">
-        <v>11819</v>
+        <v>10930</v>
       </c>
       <c r="J168">
         <v>0.0513726556129383</v>
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -8809,11 +8809,11 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I169">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="J169">
         <v>0.04705882352941176</v>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8859,11 +8859,11 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I170">
-        <v>2110</v>
+        <v>1972</v>
       </c>
       <c r="J170">
         <v>0.05054945054945055</v>
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8909,11 +8909,11 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I171">
-        <v>1352</v>
+        <v>1265</v>
       </c>
       <c r="J171">
         <v>0.03296703296703297</v>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8959,11 +8959,11 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I172">
-        <v>9300</v>
+        <v>9134</v>
       </c>
       <c r="J172">
         <v>0.04349007882576787</v>
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -9009,11 +9009,11 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I173">
-        <v>9222</v>
+        <v>9003</v>
       </c>
       <c r="J173">
         <v>0.0513726556129383</v>
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -9059,11 +9059,11 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I174">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J174">
         <v>0.04705882352941176</v>
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -9109,11 +9109,11 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I175">
-        <v>2003</v>
+        <v>1962</v>
       </c>
       <c r="J175">
         <v>0.05054945054945055</v>
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -9159,11 +9159,11 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I176">
-        <v>1211</v>
+        <v>1168</v>
       </c>
       <c r="J176">
         <v>0.03296703296703297</v>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -9209,11 +9209,11 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I177">
-        <v>9262</v>
+        <v>9053</v>
       </c>
       <c r="J177">
         <v>0.04349007882576787</v>
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -9259,11 +9259,11 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I178">
-        <v>9200</v>
+        <v>8924</v>
       </c>
       <c r="J178">
         <v>0.0513726556129383</v>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -9309,11 +9309,11 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I179">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="J179">
         <v>0.04705882352941176</v>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -9359,11 +9359,11 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I180">
-        <v>1955</v>
+        <v>1902</v>
       </c>
       <c r="J180">
         <v>0.05054945054945055</v>
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -9409,11 +9409,11 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I181">
-        <v>1181</v>
+        <v>1127</v>
       </c>
       <c r="J181">
         <v>0.03296703296703297</v>
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -9459,11 +9459,11 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I182">
-        <v>9277</v>
+        <v>9114</v>
       </c>
       <c r="J182">
         <v>0.04349007882576787</v>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -9509,11 +9509,11 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I183">
-        <v>9163</v>
+        <v>8950</v>
       </c>
       <c r="J183">
         <v>0.0513726556129383</v>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -9559,11 +9559,11 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I184">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="J184">
         <v>0.04705882352941176</v>
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -9609,11 +9609,11 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I185">
-        <v>2000</v>
+        <v>1959</v>
       </c>
       <c r="J185">
         <v>0.05054945054945055</v>
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9659,11 +9659,11 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I186">
-        <v>1194</v>
+        <v>1154</v>
       </c>
       <c r="J186">
         <v>0.03296703296703297</v>
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -9709,11 +9709,11 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I187">
-        <v>9221</v>
+        <v>9015</v>
       </c>
       <c r="J187">
         <v>0.04349007882576787</v>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -9759,11 +9759,11 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I188">
-        <v>9097</v>
+        <v>8831</v>
       </c>
       <c r="J188">
         <v>0.0513726556129383</v>
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -9809,11 +9809,11 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I189">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="J189">
         <v>0.04705882352941176</v>
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -9859,11 +9859,11 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I190">
-        <v>1948</v>
+        <v>1895</v>
       </c>
       <c r="J190">
         <v>0.05054945054945055</v>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -9909,11 +9909,11 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I191">
-        <v>1152</v>
+        <v>1100</v>
       </c>
       <c r="J191">
         <v>0.03296703296703297</v>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -9959,11 +9959,11 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I192">
-        <v>9273</v>
+        <v>9110</v>
       </c>
       <c r="J192">
         <v>0.04349007882576787</v>
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -10009,11 +10009,11 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I193">
-        <v>9371</v>
+        <v>9227</v>
       </c>
       <c r="J193">
         <v>0.0513726556129383</v>
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I194">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I195">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I196">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -10209,11 +10209,11 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I197">
-        <v>9213</v>
+        <v>9008</v>
       </c>
       <c r="J197">
         <v>0.04349007882576787</v>
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -10259,11 +10259,11 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I198">
-        <v>9275</v>
+        <v>9092</v>
       </c>
       <c r="J198">
         <v>0.0513726556129383</v>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -10309,7 +10309,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I199">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I200">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>SeP_1_SpP_1</t>
+          <t>SeP_0.9_SpP_1</t>
         </is>
       </c>
       <c r="I201">
@@ -10424,6 +10424,5006 @@
         </is>
       </c>
       <c r="L201" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D202">
+        <v>0.95</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I202">
+        <v>11448</v>
+      </c>
+      <c r="J202">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D203">
+        <v>0.95</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I203">
+        <v>11750</v>
+      </c>
+      <c r="J203">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D204">
+        <v>0.95</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I204">
+        <v>738</v>
+      </c>
+      <c r="J204">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D205">
+        <v>0.95</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I205">
+        <v>2917</v>
+      </c>
+      <c r="J205">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D206">
+        <v>0.95</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I206">
+        <v>1960</v>
+      </c>
+      <c r="J206">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D207">
+        <v>0.95</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I207">
+        <v>11448</v>
+      </c>
+      <c r="J207">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D208">
+        <v>0.95</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I208">
+        <v>11750</v>
+      </c>
+      <c r="J208">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D209">
+        <v>0.95</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I209">
+        <v>738</v>
+      </c>
+      <c r="J209">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D210">
+        <v>0.95</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I210">
+        <v>2917</v>
+      </c>
+      <c r="J210">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D211">
+        <v>0.95</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I211">
+        <v>1960</v>
+      </c>
+      <c r="J211">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D212">
+        <v>0.95</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I212">
+        <v>11079</v>
+      </c>
+      <c r="J212">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D213">
+        <v>0.95</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I213">
+        <v>11202</v>
+      </c>
+      <c r="J213">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D214">
+        <v>0.95</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I214">
+        <v>453</v>
+      </c>
+      <c r="J214">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D215">
+        <v>0.95</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I215">
+        <v>2031</v>
+      </c>
+      <c r="J215">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D216">
+        <v>0.95</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I216">
+        <v>1309</v>
+      </c>
+      <c r="J216">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D217">
+        <v>0.95</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I217">
+        <v>11236</v>
+      </c>
+      <c r="J217">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D218">
+        <v>0.95</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I218">
+        <v>11374</v>
+      </c>
+      <c r="J218">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D219">
+        <v>0.95</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I219">
+        <v>446</v>
+      </c>
+      <c r="J219">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D220">
+        <v>0.95</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I220">
+        <v>2041</v>
+      </c>
+      <c r="J220">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D221">
+        <v>0.95</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I221">
+        <v>1309</v>
+      </c>
+      <c r="J221">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D222">
+        <v>0.95</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I222">
+        <v>9217</v>
+      </c>
+      <c r="J222">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D223">
+        <v>0.95</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I223">
+        <v>9112</v>
+      </c>
+      <c r="J223">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D224">
+        <v>0.95</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I224">
+        <v>448</v>
+      </c>
+      <c r="J224">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D225">
+        <v>0.95</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I225">
+        <v>1983</v>
+      </c>
+      <c r="J225">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D226">
+        <v>0.95</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I226">
+        <v>1189</v>
+      </c>
+      <c r="J226">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D227">
+        <v>0.95</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I227">
+        <v>9157</v>
+      </c>
+      <c r="J227">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D228">
+        <v>0.95</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I228">
+        <v>9062</v>
+      </c>
+      <c r="J228">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D229">
+        <v>0.95</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I229">
+        <v>427</v>
+      </c>
+      <c r="J229">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D230">
+        <v>0.95</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I230">
+        <v>1928</v>
+      </c>
+      <c r="J230">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D231">
+        <v>0.95</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I231">
+        <v>1154</v>
+      </c>
+      <c r="J231">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D232">
+        <v>0.95</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I232">
+        <v>9195</v>
+      </c>
+      <c r="J232">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D233">
+        <v>0.95</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I233">
+        <v>9057</v>
+      </c>
+      <c r="J233">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D234">
+        <v>0.95</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I234">
+        <v>435</v>
+      </c>
+      <c r="J234">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D235">
+        <v>0.95</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I235">
+        <v>1979</v>
+      </c>
+      <c r="J235">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D236">
+        <v>0.95</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I236">
+        <v>1174</v>
+      </c>
+      <c r="J236">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D237">
+        <v>0.95</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I237">
+        <v>9118</v>
+      </c>
+      <c r="J237">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D238">
+        <v>0.95</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I238">
+        <v>8965</v>
+      </c>
+      <c r="J238">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D239">
+        <v>0.95</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I239">
+        <v>415</v>
+      </c>
+      <c r="J239">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D240">
+        <v>0.95</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I240">
+        <v>1921</v>
+      </c>
+      <c r="J240">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D241">
+        <v>0.95</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I241">
+        <v>1127</v>
+      </c>
+      <c r="J241">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D242">
+        <v>0.95</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I242">
+        <v>9191</v>
+      </c>
+      <c r="J242">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D243">
+        <v>0.95</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I243">
+        <v>9300</v>
+      </c>
+      <c r="J243">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D244">
+        <v>0.95</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D245">
+        <v>0.95</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D246">
+        <v>0.95</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D247">
+        <v>0.95</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I247">
+        <v>9112</v>
+      </c>
+      <c r="J247">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D248">
+        <v>0.95</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I248">
+        <v>9183</v>
+      </c>
+      <c r="J248">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D249">
+        <v>0.95</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D250">
+        <v>0.95</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D251">
+        <v>0.95</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>SeP_0.95_SpP_1</t>
+        </is>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I252">
+        <v>11448</v>
+      </c>
+      <c r="J252">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I253">
+        <v>11750</v>
+      </c>
+      <c r="J253">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I254">
+        <v>738</v>
+      </c>
+      <c r="J254">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I255">
+        <v>2917</v>
+      </c>
+      <c r="J255">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I256">
+        <v>1960</v>
+      </c>
+      <c r="J256">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I257">
+        <v>11448</v>
+      </c>
+      <c r="J257">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I258">
+        <v>11750</v>
+      </c>
+      <c r="J258">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I259">
+        <v>738</v>
+      </c>
+      <c r="J259">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I260">
+        <v>2917</v>
+      </c>
+      <c r="J260">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>cxr_case</t>
+        </is>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I261">
+        <v>1960</v>
+      </c>
+      <c r="J261">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I262">
+        <v>11461</v>
+      </c>
+      <c r="J262">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I263">
+        <v>11585</v>
+      </c>
+      <c r="J263">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I264">
+        <v>464</v>
+      </c>
+      <c r="J264">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I265">
+        <v>2086</v>
+      </c>
+      <c r="J265">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I266">
+        <v>1344</v>
+      </c>
+      <c r="J266">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I267">
+        <v>11676</v>
+      </c>
+      <c r="J267">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I268">
+        <v>11819</v>
+      </c>
+      <c r="J268">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I269">
+        <v>459</v>
+      </c>
+      <c r="J269">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I270">
+        <v>2110</v>
+      </c>
+      <c r="J270">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>general_pooling_case</t>
+        </is>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I271">
+        <v>1352</v>
+      </c>
+      <c r="J271">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>1</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I272">
+        <v>9300</v>
+      </c>
+      <c r="J272">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I273">
+        <v>9222</v>
+      </c>
+      <c r="J273">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I274">
+        <v>453</v>
+      </c>
+      <c r="J274">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I275">
+        <v>2003</v>
+      </c>
+      <c r="J275">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I276">
+        <v>1211</v>
+      </c>
+      <c r="J276">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I277">
+        <v>9262</v>
+      </c>
+      <c r="J277">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I278">
+        <v>9200</v>
+      </c>
+      <c r="J278">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I279">
+        <v>434</v>
+      </c>
+      <c r="J279">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I280">
+        <v>1955</v>
+      </c>
+      <c r="J280">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>mixed_pooling_case</t>
+        </is>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I281">
+        <v>1181</v>
+      </c>
+      <c r="J281">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I282">
+        <v>9277</v>
+      </c>
+      <c r="J282">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I283">
+        <v>9163</v>
+      </c>
+      <c r="J283">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I284">
+        <v>445</v>
+      </c>
+      <c r="J284">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I285">
+        <v>2000</v>
+      </c>
+      <c r="J285">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I286">
+        <v>1194</v>
+      </c>
+      <c r="J286">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I287">
+        <v>9221</v>
+      </c>
+      <c r="J287">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I288">
+        <v>9097</v>
+      </c>
+      <c r="J288">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I289">
+        <v>427</v>
+      </c>
+      <c r="J289">
+        <v>0.04705882352941176</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290">
+        <v>1</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I290">
+        <v>1948</v>
+      </c>
+      <c r="J290">
+        <v>0.05054945054945055</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>cad_cohort_pooling_case</t>
+        </is>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I291">
+        <v>1152</v>
+      </c>
+      <c r="J291">
+        <v>0.03296703296703297</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I292">
+        <v>9273</v>
+      </c>
+      <c r="J292">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>1</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I293">
+        <v>9371</v>
+      </c>
+      <c r="J293">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>1</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>1</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>1</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>pool3</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>CAD4TB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>BND1</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I297">
+        <v>9213</v>
+      </c>
+      <c r="J297">
+        <v>0.04349007882576787</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BND2</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I298">
+        <v>9275</v>
+      </c>
+      <c r="J298">
+        <v>0.0513726556129383</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>CAD4TB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>NIG1</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>1</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>1</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>VNM1</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>1</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>VietNam</t>
+        </is>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>qXRv3</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>ZAM1</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>pool4</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>combination_4</t>
+        </is>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>1</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>SeP_1_SpP_1</t>
+        </is>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>1</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="L301" t="inlineStr">
         <is>
           <t>CAD4TB7</t>
         </is>
